--- a/500all/speech_level/speeches_CHRG-114hhrg94580.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94580.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Committee on Homeland Security Subcommittee on Oversight and Management Efficiency will come to order. The purpose of this hearing is to receive testimony regarding security implications of small, unmanned aerial systems in the domestic airspace and technologies to mitigate associated threats.    Chairman now recognizes itself for an opening statement.    When most people think of unmanned aerial systems, or UAS, commonly known as drones, they may think of large aircraft used in overseas combat operations. However, in the coming years, the majority of UAS will be small--55 pounds or less--many of which fly less than 400 feet above the ground. Small UAS have a variety of potential uses such as pipeline, utility, and farm inspections, aerial photography, and crop-dusting, among other uses.    Last month the Federal Aviation Administration, the FAA, released proposed rules to allow for the operation of small UAS for non-recreational purposes into domestic airspace. The proposed rules would place numerous limitations on flying small UAS: Flights could take place only in daylight, the area of operations would be limited, and only visual-line-of-sight operations would be permitted. These proposed rules are now open for public comment.    Our hearing today will focus on the security implications of opening our skies to small UAS and how agencies such as the Department of Homeland Security, Federal, State, and local law enforcement agencies should prepare.    Several recent security incidents are concerning. In January, a small quadcopter crashed on the White House lawn. Although the incident seemingly was accidental, it exposed the larger issue of how law enforcement should respond to UAS threats and, subsequently, the Secret Service quickly scheduled exercises in the D.C. area in response.    Also, a September 2013 incident where a small UAS landed only inches away from German Chancellor Angela Merkel also exposed serious concerns and the challenge that protective services around the world now face.    Last but not least, French police recently were confounded when several unidentified small UAS flew over key Paris landmarks, including the Eiffel Tower, as well as nuclear power plants. French authorities are investigating, but again, this incident showcases the challenges to law enforcement to respond swiftly to this new technology.    Threats posed by the small UAS are nothing new. For example, an individual was arrested in September 2011 after a failed plot to attack the U.S. Capitol and Pentagon using multiple remote-controlled aircraft laden with explosives.    But nightmare scenarios by terrorists aren't the only concern. Drug smugglers could use this technology as a cheap way to smuggle illegal drugs into the United States, and spies may also use small drones to get into areas we would prefer hidden.    So the question remains: How can homeland security and law enforcement prepare for these potential threats?    In July 2012, this committee held a hearing highlighting the need to address the security risks associated with UAS. In the past 3 years, the Department of Homeland Security has taken some steps to educate law enforcement and the public on small     The National Protection and Programs Directorate, the NPPD, released a model aircraft reference aid to inform the public about potential illicit uses, impacts, and indicators of malicious activity. The Science and Technology Director has been assessing the capabilities of small UAS for State and local law enforcement and first responders.    However, much more needs to be done to safeguard against malicious actors successfully using this technology for illegal means. The Department of Homeland Security needs a cohesive strategy to address these issues.    Lone-wolf terrorists, drug smugglers, and foreign spies don't care about FAA rules. The DHS must help protect against these bad actors perverting this technology for their objectives.    Testimony from our witnesses today will help provide a roadmap for what homeland security and law enforcement can do to mitigate this risk. Specifically, we need a better understanding of the technological solutions that exist to deal with these threats and what law enforcement needs to better respond when a small UAS is used for illegal activity.    I look forward to hearing from today's witnesses on their assessment of the threats and potential solutions.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you very much, Mr. Chairman. Again, thank you for holding this hearing.    I would also like to thank the panel of witnesses for appearing before the subcommittee today.    I am very interested in hearing from Professor McNeal, an expert on the issue of drones, about the potential policy options available to mitigate and respond to the threats posed by the commercial availability of unmanned aerial systems. Additionally, I am eager to hear from Professor Humphreys regarding DHS's efforts since his last appearance before the subcommittee to respond to the security vulnerabilities associated with drones.    I am also looking forward to hearing from Mr. Roggero, who will be able to better inform this subcommittee about emerging technology that can be used to increase the safety of our airspace and our security posture as drones become increasingly integrated into our National airspace. Last, I am pleased that Chief Beary, the president of the International Association of Chiefs of Police, is appearing before this subcommittee.    Although you are here today to testify about the use of drones in law enforcement, I cannot forego the opportunity to talk with you about an issue that is very important to me and my constituents--that is the recent report from the Department of Justice on policing in Ferguson, Missouri, which found that many predominantly African-American neighborhoods are targeted in an effort to raise revenue for financial functions.    My question will be: Are drones possibly--can they possibly be mechanisms used for accountability, such as body cameras will be? I want to thank you for the fine job that you are doing, but this issue really must be addressed.    Now, back to the specifics of drones. Commercially-available drones are becoming an increasingly popular purchase, with the drone market expected to grow $84 billion over the next 5 years. As the commercial drone market grows, so, too, does the threat that drones will be used by actors with ill intent.    Drones can be purchased on-line with prices starting as low as $40, and they are fairly easy to assemble and learn how to operate. In many cases, it is easier to learn how to operate a drone than it is a model aircraft.    With drones being so easily accessible, we must consider the potential they have to be used as mechanisms to conduct an attack.    Although we have not yet witnessed such an attack, we have seen how individuals operating drones have gotten extraordinarily close to at least one head of state. During the campaign rallying in 2013, the drone, piloted by an opposition party supporter, landed at the feet of the chancellor of Germany, Angela Merkel, as mentioned by my Chairman.    There have also been recent stories of mysterious drones flying over sensitive Government assets, including the U.S. Embassy in Paris, and we are all familiar with the story regarding the drone landing on the White House lawn in January. It does not take wild imagination to envision what may happen if someone with malicious intent got their hands on drones.    This emerging threat requires a unified effort by the Department of Homeland Security in developing security plans for mitigation and response. The Department of Homeland Security must conduct risk assessment to accurately determine the threat posed by drones.    In the absence of risk assessments and a measured approach, the Department will spend millions of dollars without knowing what the real threat is or how to defend against it.    Unfortunately, the Department of Homeland Security declined this invitation to testify before this subcommittee to explain how they are working toward a Department-wide strategy and address the issues at hand. Even without the Department's testimony, I am confident that the panel of witnesses that are here today will help us better understand the threat posed by drones and the technologies available to address that threat.    Although drones are not the only avenue for conducting attacks, it is imperative that we leave the bad guys with fewer rather than a whole universe of options. We will narrow the threat picture by dealing with the security vulnerabilities posed by commercially-available drones while still recognizing the economic benefits of the industry.    With that, Mr. Chairman, I thank you and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman, and thank you for holding this important and timely hearing.    On a daily basis articles are published about the suspicious use of commercially-available drones. In recent weeks drones have been observed flying over sensitive locations in Paris. According to French authorities, drones have flown over nuclear installations, the home of the French president, and the United States Embassy.    Here in the United States, a drone recently crashed on the White House grounds. While the incident at the White House has been described by officials as nothing more than a drunken misadventure, it raises questions about the threat commercially-available drones may pose to individuals, infrastructure, and our aviation systems.    Undoubtedly, drones have great potential. In Japan, drones have been used by farmers for years as an efficient and effective tool for crop fertilization. Projects for commercial use in the United States display that drones will become a common sight on farms in Pennsylvania and my home State of Mississippi in the coming years.    In the wrong hands, however, these potentially valuable commercial tools could become dangerous instruments for attack. That is why it is critical that the Department of Homeland Security conduct risk assessments to determine what steps should be taken to mitigate the potential threat.    To date, we have learned of components of the Department, such as Secret Service and the Science and Technology Directorate, conducting testing that identifies methods to address the potential threats drones pose. It is less clear whether there is a Department-wide strategy to develop--to address the issue.    Unfortunately, despite being invited, as previously commented, the Department of Homeland Security is not here today to explain why and to Members what is being done to address the security vulnerabilities drones expose. Despite the Department's absence, I am confident that the Members will receive valuable testimony from this distinguished panel of witnesses assembled.    Professor McNeal is an expert on the issues of drones and will add a valuable voice to our conversation about the policy solutions should be explored to address the security concerns surrounding drones. Professor Humphreys is making his second appearance before the subcommittee to discuss the issue. I look forward to the other witnesses' testimony also.    Finally, I am pleased that Chief Beary is appearing in his capacity as president of the International Association of Chiefs of Police. We all have questions Chief Beary can address regarding how law enforcement utilizes drones and how they respond to drone operating in our cities.    However, before yielding back, Mr. Chairman, I am compelled to point out that much of what we, and now the public, know of the Secret Service's testing of drones is the result of leaks. Unfortunately, it is all too common an occurrence that information provided to Members and staff in our security space to be published by the media in the next days and hours after the briefing.    This committee has a responsibility to the American people to make the Department of Homeland Security work and, accordingly, our Nation more secure. Leaking Classified information is in direct conflict with that responsibility. It is also in conflict with the law and the oath we signed to obtain access to Classified information.    I hope and trust all Members and staff of this committee and those of other committees we invite to attend briefings will take the oath and the responsibility that comes with it to heart.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Humphreys</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Humphreys. Chairman Perry, Ranking Member Watson Coleman, and Ranking Member Thompson, last August the U.T. football season opener was interrupted by a drone. There were nearly 100,000 football fans in the stadium that day and the police had to stand by watching helplessly as this drone shifted around the stadium.    The incident only ended when the operator decided to recall the drone and it landed at his feet.    The situation turned out to be harmless. This was just a case of a ticketless but devoted U.T. football fan who just wanted to watch the game. But the police couldn't have known that before-hand, so they had to treat the incident as a potential attack on the multitude of gathered spectators.    In the years to come, this intrusion at the U.T. football stadium will be replayed in various forms at sites critical to the security of the United States. The great majority of these incidents will be accidently, like the flyaway drone that crashed at the White House in January.    But in the early stages of a drone incursion, it is impossible to distinguish the accidental from the intentional, the malignant from the benign. The distressing truth is that even consumer-grade drones can be rigged to carry out potent attacks, and against these attacks our defenses will either be only weakly effective or so militarized as to pose themselves a threat to bystanders and the surrounding civil infrastructure.    In thinking about how to detect and defend against rogue UAVs, it is useful to distinguish three categories. First are the accidental intrusions; second are the intentional intrusions by unsophisticated operators; and third are the intentional intrusions by sophisticated operators--these are people who know how to modify the hardware and software of a drone to make it do what they want.    Detecting and safely repelling intrusions of the first two categories is not simple, but it is quite possible. Commercial UAV manufacturers can play a key role here by implementing GPS-enforced geo-fences within their autopilot systems. That simple fix would prevent accidental and unsophisticated drone intrusions into restricted airspace.    So what about the third type--the sophisticated malicious attacks? These will be much more difficult to counter. The fact is that for any reasonable defense I can imagine, I can also imagine a counter to that defense, a way to circumvent that defense.    I am not alone. Any one of my graduate students at the University of Texas, or many undergraduate students walking the halls of universities across the globe, or those part of the do-it-yourself community, hobbyists--these people have the kind of skills that would be required to carry out one of the sophisticated attacks I mentioned. The documentation is also extensive.    So what should we do? Well, let's start with what we shouldn't do.    It won't help to impose stricter regulations on small UAS than the sensible regulations the FAA has already proposed. Likewise, restricting open-source autopilot platforms would hardly improve security, but it would stifle innovation. Military-style radio link or GPS jamming or spoofing wouldn't stop a sophisticated attacker, but would endanger commercial airliners and disrupt communications.    In my view, the most sensible way forward is to focus on accidental and unsophisticated UAV intrusions. Let's encourage the UAV manufacturers to put geo-fences in their autopilot systems.    For especially sensitive sites like the White House, we could deploy a network of infrared cameras set up to detect and track an incoming drone by looking for the thermal signatures of its warm batteries and motors. This network of sensors could be used to guide an always-ready squadron of interceptor drones that could capture the intruder in a net can carry it off.    But we should refrain from any more drastic measures than these until the threat of UAVs proves to be more of a menace than the recent incidents, which, while alarming, were ultimately harmless.    Thank you.</t>
   </si>
   <si>
@@ -100,18 +88,12 @@
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Roggero.    The Chairman now recognizes Chief Beary for your testimony, sir.</t>
   </si>
   <si>
-    <t>Beary</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chief Beary. Good morning, Chairman Perry and Members of the subcommittee. Thank you for inviting me to testify today on the potential threat posed by unmanned aerial systems.    As president of the International Association of Chiefs of Police, commonly referred to as the IACP, and on behalf of our 23,000 members in 98 different countries, I would like to thank you, Members of this committee, for the support you have demonstrated for law enforcement over the years. Our law enforcement community and our communities in general need your support. Thank you.    The IACP is the world's largest association of law enforcement leaders, and for over 120 years the IACP has been launching internationally-acclaimed programs, speaking out on behalf of law enforcement, and conducting ground-breaking research. We provide services not only in the United States but across the globe.    I began my law enforcement career in 1977 and, as the Chairman said, I have 30 years on the municipal side, and now I have almost 8 years on the university side of law enforcement. The University of Central Florida is the largest university in the State of Florida, and we are the second-largest in the United States.    During my career I have watched the threats to our communities evolve. We still deal with the problem of violent crime, drugs, prostitution, smuggling, trafficking, and gangs, but we are now tasked in dealing with cyber threats, violent extremism, terrorism, and highly organized criminals with access to specialized equipment to aid them in their mission and to harm others and devastate our communities.    Included in that specialized equipment are unmanned aerial systems. While UAS can be a great tool, they also pose a serious threat to the public and law enforcement when used by the wrong people.    When used responsibly, and with good policies in place, UAS have enhanced law enforcement's ability to protect communities they serve. UAS has helped law enforcement agencies save time, save money, and, most importantly, save lives.    They are ideal for dangerous or difficult situations, like executing high-risk warrants; responding to barricaded suspects; gaining situational awareness in difficult terrain; and enhancing officer safety by exposing unseen dangers; locating missing children; or responding to damage caused by emergencies such as natural disasters, downed power lines, or hazardous material incidents.    Despite the undeniable benefits these systems can have, they also pose a grave threat to public safety. Almost anyone can obtain an unmanned aerial system these days. They can buy it off the shelf from Amazon, have it delivered in 2 days, charge the battery, and immediately begin flying the device.    The fact that these devices are so readily available to the public is concerning. The average citizen that is purchasing these devices generally has no aviation experience and therefore does not think twice about operating in controlled airspace, over the public, or over a crowded beach or any other gathering--mass gathering. Nor do they think twice about launching a UAS to ascertain what the police or the fire department is working on up the street.    This is a real danger to the public. Public safety and others regarding these aircraft have to be addressed. The average citizen simply does not know what they are doing wrong and the potential damaging effects that these devices can have when operated improperly.    Recently we have witnessed several high-profile incidents with UAS. Of course, we talked about the crash landing at the White House, flying over sensitive locations, and near-miss with aircraft on a regular basis. At the University of Central Florida we have personally experienced these aircraft flying over mass gatherings, including football games, in violation of airspace restrictions that are in place to protect the public.    The newest version of these devices are now flown in virtual reality mode, meaning that the operator does not need to be in the line of sight while flying the aircraft.    Thankfully, at this point most of the incidents involving UAS have not lead to horrific events, but I don't think we are far away from one of those happening. The concerns are real. There is nothing to stop the criminal element from purchasing a UAS and using it to cause localized or catastrophic damage.    I mentioned earlier that I am from Orlando, which is home to many, many theme parks. I can assure you they have major concerns about the safety of their guests, and they have numerous incidents of these devices flying over their airspace. They have a real fear that someone wants to harm a large amount of people who are attending their parks.    Now, something as simple as a UAS were to fly into a park or a football stadium with something as simple as a smoke bomb could cause incredible panic, thus leading to major injuries for the people that are there.    Again, these devices can be used to fly over restricted areas and to plan an attack.    Because these devices are in their infancy, now is the time for the Federal Government and the Federal agencies to work with us and develop the guidelines so that law enforcement knows what to do. The Department of Homeland Security did provide my agency with a 2-page document on recommended UAS response procedures at our stadium. We got that late in the football season in November.    While those things are nice, there is no detail in what do we do for the follow-up, how do we respond to these, who do we call for further information? We are not criticizing the Federal Government; this is our call for help. Law enforcement needs to know how you want us to respond to these and where we are going to go in the future.    The lack of clear guidance and best practices has led to confusion among the law enforcement community when they are dealing with these. Almost every critical situation now, they are drones flying over top of law enforcement officers and interfering with our helicopter when we are trying to deal with these things.    Again, since these devices do not have a transponder or a registration, it is difficult to track down and it is impossible, in many cases, to figure out where they came from.    Without law enforcement knowing the proper procedures it leaves us vulnerable and makes our primary job of keeping the public safe more challenging.    Ladies and gentlemen, I thank you for allowing me the opportunity to be here. I look forward to the questions.    Again, I bring quite a bit of law enforcement experience to the table, and if you want to talk about the Justice report, wherever you want to go I am good to go. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Chief Beary.    The Chairman now recognizes Dr. McNeal for your testimony, sir.</t>
   </si>
   <si>
-    <t>McNeal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNeal. Chairman Perry, Ranking Member Watson Coleman, Ranking Member Thompson, and Members of the committee, thank you for hosting this hearing and inviting me to testify.    The emergence of unmanned aerial vehicles in domestic skies raises understandable concerns that may require employment of mitigation technologies by law enforcement or security personnel. However, before any funds are expended on such technologies, agencies should engage in comprehensive risk assessment to identify the probability of that harm, the magnitude of a potential harm, benefits of security measures, and the cost of those measures. We have to bear in mind that one of the significant costs is that the vast majority of drones will be used for economically and socially beneficial purposes, and we have to remain cognizant of that at all points in time.    This testimony outlines four key issues that Congress should remain cognizant of when drafting legislation or overseeing the Department of Homeland Security.    First, Congress should ensure that agencies are distinguishing between possible threats, which we can all sit around and imagine, and probable threats. Congress should also ensure that agencies are avoiding fear-based appeals that might drive the policymaking process.    Drones are an exciting topic. They capture the attention of the media. Oftentimes that drives agencies to feel like they need to do something, to look like they are responding.    The recent attention for drones, though, oftentimes appears to be driven by this type of media attention. I say this because while remote control aircraft are seemingly new, they have, in fact, been around for decades.    Furthermore, the small quadcopters that have been gathering so much attention lately due to their ease of use would also be the least useful to a dedicated attacker. Rather, larger, faster, and heavier systems exist, and these systems have existed for many years. Many of those systems can be home-built, and in the hands of a dedicated attacker they will be very difficult to stop.    Given the complexity of the threat picture, we must ensure that agencies do not fall victim to the sensationalism that drives worst-case scenario-based planning. Such an approach to risk management can justify enormous expenditures no matter how unlikely the prospects are that the event will take place.    We should avoid focusing only on the extreme but improbable, and rather, we should do the best that we can to focus on the probable and assess the magnitude of the potential harm that might flow from those.    Second, Congress should ensure that agencies are assessing risk by not only looking at that probability of a successful attack, but also the magnitude of losses. Congress should ensure that every agency action related to an alleged homeland security risk from drones is preceded by a risk assessment. That is the first step in any managerial decision about potential threats. Across homeland security, any time we are looking at threats it should be preceded by looking at the risk before we immediately begin expending funds.    A risk assessment is that first step and ensures that agencies make hard choices with limited resources. Every possible threat cannot be guarded against; therefore, agencies have to focus on the riskiest threats.    Third, Congress should ensure that before any funds are spent agencies are also engaged in a formal cost-benefit analysis. The employment of mitigation technology against risk cannot take place in a vacuum. Rather, it requires agencies to consider the degree to which a security measure is likely to deter, disrupt, or protect against a terrorist attack.    The reality is that implementing security measures across all--across the Federal Government will require aggregating the costs across thousands of facilities. How to allocate those scarce resources will require prioritization driven by risk assessments, and this brings me to my final point.    Congress should ensure that specific individuals at the Department of Homeland Security are responsible for conducting these analyses and reporting their methodology. Congress may also want to provide funds to the Centers of Excellence for an independent check on how agencies are conducting these assessments.    Given the complexity of the risk assessment picture associated with drones and their potential to pose a homeland security threat, I am certain that DHS and agencies are working on this. I am sure many people are working on this. In fact, that might be part of the problem is that in every--in each stovepipe across agencies, various individuals might be working on the threat but there is not a single point of coordination.    So Congress should direct that a specific individual or an office within DHS take the interagency lead on this. There is some precedent for this. Back in 2004 homeland security stood up an office known as the Counter-MANPADS System Program Office. This was the office that assessed whether or not there was a threat to commercial aviation from man-portable surface-to-air missiles.    It was a temporary office that assessed the threat; after assessing the threat, providing some recommendations, it went away.    We could stand up a similar office about emerging threats. Or in the alternative, what we could do is we could designate that the under secretary for National Protection and Programs Directorate lead a threat assessment process for drones specifically, or for emerging threats in general.    The emergence of unmanned aerial vehicles in domestic skies raises understandable concerns, but before any funds are expended on such technologies--mitigation technologies, the Department should engage in a comprehensive risk assessment to identify the probability of harm, magnitude of harm, benefits of security measures, and the direct and indirect costs of those security measures.    Thank you.</t>
   </si>
   <si>
@@ -223,9 +205,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    Appreciate the testimony here, and I think, Dr. Humphreys and Dr. McNeal, you kind of hit on some significant areas with risk analysis as we go forward. Especially, I think the two categories that we can really look at this is the unintentional and the intentional.    Unintentional, we can mitigate some of the incidents with that via regulation, legislation, technology, et cetera. But the intentional--it is more difficult because the bad guys are going to be bad guys. They are going to work around that.    I put a lot of thought into this as an aviator, and working in search and rescue and different areas such as that. This is a question to anyone on the panel that has the information: Have there been any efforts or have we classified UAS platforms based on their technology, sophistication, payload capabilities complexity of operation?    Do we have a classification, like we do with civilian aircraft? You know, we have the different classifications--single engine, twin, land, sea-capable, et cetera.</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t>412432</t>
   </si>
   <si>
-    <t>Cedric L. Richmond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman.    Thank you, to the Ranking Member of the full committee, and the Ranking Member of the subcommittee, and the witnesses.    Let me just start with some very basic stuff.    Major General Roggero, let me start with you.    I represent the district with probably the largest petrochemical footprint in the United States on the Mississippi River in New Orleans, around New Orleans. Is there any technology out there right now that would prevent these drones from being used to do reconnaissance missions just to look at the security on these chemical facilities or our port or any of those very sensitive properties?    General Rogerro. From a technology aspect, depends on what equipment they are using. But for a good amount of it I would say yes, there is technology that could do things.    I am not looking at policy right now or questions on technology, but yes, technology could get into the signal--either the video or the command and control of the system--and affect the navigation of the system so it may not be looking exactly what they want it to look at. So that is there.    But there are complications with that in terms of policy, with FCC rules and other things that--another issue that is out there is that the FAA has declared that all of these are aircraft, and as such, their second and third order of effects--perhaps unintended effects--but that aircraft is given protections as if it were a manned aircraft, as well. So there are certain actions, according to policy, that you can't take against them.</t>
   </si>
   <si>
@@ -287,9 +263,6 @@
   </si>
   <si>
     <t>412617</t>
-  </si>
-  <si>
-    <t>Norma J. Torres</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you so much, and thank you for the opportunity to discuss this very important topic.    Just to follow up on your conversation, as a former 9-1-1 dispatcher I can tell you from personal experience that trying to get clearance to--as we are pursuing a vehicle, or our officers are pursuing a vehicle, trying to get clearance from an airport to follow a vehicle into that restricted zone, our helicopters are unable to continue that pursuit, but yet the media or, you know, folk from the ground can continue that pursuit through a drone.    That poses, you know--it is a very scary environment for those of us who live near an executive airport, for example, where our homes are very close by, and the--and these executive aircraft are landing--their landing route is right over our home. I thought, you know, birds were the scariest things that, you know, could face an aircraft as they are beginning to land, but now we have more and more of these drones that are getting in that way.    My question is really going to be to Professor Humphreys, and that is, in your prior testimony before the committee in 2012 you spoke of the use of civilian GPS and their ability to be spoofed or counterfeit. Can you tell me how technology has evolved? You know, what are the differences between then and now with older and newer models?</t>
@@ -802,11 +775,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -828,11 +799,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -852,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -880,11 +847,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -904,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -932,11 +895,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -956,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -984,11 +943,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1010,11 +967,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1034,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1062,11 +1015,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1086,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1114,11 +1063,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1140,11 +1087,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1166,11 +1111,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1190,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1218,11 +1159,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1242,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1270,11 +1207,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1294,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1322,11 +1255,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1346,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1374,11 +1303,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1398,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1426,11 +1351,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1450,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1476,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1502,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1528,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1554,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1580,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1606,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1632,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1658,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1684,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1710,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1736,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1764,11 +1663,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1788,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1814,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1840,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1866,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1892,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1918,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1944,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1970,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1998,11 +1879,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2022,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2048,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2074,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2100,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2126,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2152,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>68</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2178,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>69</v>
-      </c>
-      <c r="H55" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2204,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2230,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2256,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2282,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2308,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2334,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2360,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2386,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2412,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2438,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2466,11 +2311,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2490,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2516,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2542,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2570,11 +2407,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2594,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2620,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2646,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2672,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2698,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2724,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
-      </c>
-      <c r="G76" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2750,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2776,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2802,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2828,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2856,11 +2671,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2880,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2906,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2932,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2958,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2984,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3010,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3038,11 +2839,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3064,11 +2863,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3090,11 +2887,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3114,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3142,11 +2935,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3166,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3194,11 +2983,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3220,11 +3007,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3244,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3272,11 +3055,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3296,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3324,11 +3103,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3350,11 +3127,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3374,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3402,11 +3175,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3426,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3454,11 +3223,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94580.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94580.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Committee on Homeland Security Subcommittee on Oversight and Management Efficiency will come to order. The purpose of this hearing is to receive testimony regarding security implications of small, unmanned aerial systems in the domestic airspace and technologies to mitigate associated threats.    Chairman now recognizes itself for an opening statement.    When most people think of unmanned aerial systems, or UAS, commonly known as drones, they may think of large aircraft used in overseas combat operations. However, in the coming years, the majority of UAS will be small--55 pounds or less--many of which fly less than 400 feet above the ground. Small UAS have a variety of potential uses such as pipeline, utility, and farm inspections, aerial photography, and crop-dusting, among other uses.    Last month the Federal Aviation Administration, the FAA, released proposed rules to allow for the operation of small UAS for non-recreational purposes into domestic airspace. The proposed rules would place numerous limitations on flying small UAS: Flights could take place only in daylight, the area of operations would be limited, and only visual-line-of-sight operations would be permitted. These proposed rules are now open for public comment.    Our hearing today will focus on the security implications of opening our skies to small UAS and how agencies such as the Department of Homeland Security, Federal, State, and local law enforcement agencies should prepare.    Several recent security incidents are concerning. In January, a small quadcopter crashed on the White House lawn. Although the incident seemingly was accidental, it exposed the larger issue of how law enforcement should respond to UAS threats and, subsequently, the Secret Service quickly scheduled exercises in the D.C. area in response.    Also, a September 2013 incident where a small UAS landed only inches away from German Chancellor Angela Merkel also exposed serious concerns and the challenge that protective services around the world now face.    Last but not least, French police recently were confounded when several unidentified small UAS flew over key Paris landmarks, including the Eiffel Tower, as well as nuclear power plants. French authorities are investigating, but again, this incident showcases the challenges to law enforcement to respond swiftly to this new technology.    Threats posed by the small UAS are nothing new. For example, an individual was arrested in September 2011 after a failed plot to attack the U.S. Capitol and Pentagon using multiple remote-controlled aircraft laden with explosives.    But nightmare scenarios by terrorists aren't the only concern. Drug smugglers could use this technology as a cheap way to smuggle illegal drugs into the United States, and spies may also use small drones to get into areas we would prefer hidden.    So the question remains: How can homeland security and law enforcement prepare for these potential threats?    In July 2012, this committee held a hearing highlighting the need to address the security risks associated with UAS. In the past 3 years, the Department of Homeland Security has taken some steps to educate law enforcement and the public on small     The National Protection and Programs Directorate, the NPPD, released a model aircraft reference aid to inform the public about potential illicit uses, impacts, and indicators of malicious activity. The Science and Technology Director has been assessing the capabilities of small UAS for State and local law enforcement and first responders.    However, much more needs to be done to safeguard against malicious actors successfully using this technology for illegal means. The Department of Homeland Security needs a cohesive strategy to address these issues.    Lone-wolf terrorists, drug smugglers, and foreign spies don't care about FAA rules. The DHS must help protect against these bad actors perverting this technology for their objectives.    Testimony from our witnesses today will help provide a roadmap for what homeland security and law enforcement can do to mitigate this risk. Specifically, we need a better understanding of the technological solutions that exist to deal with these threats and what law enforcement needs to better respond when a small UAS is used for illegal activity.    I look forward to hearing from today's witnesses on their assessment of the threats and potential solutions.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412644</t>
   </si>
   <si>
+    <t>Watson Coleman</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you very much, Mr. Chairman. Again, thank you for holding this hearing.    I would also like to thank the panel of witnesses for appearing before the subcommittee today.    I am very interested in hearing from Professor McNeal, an expert on the issue of drones, about the potential policy options available to mitigate and respond to the threats posed by the commercial availability of unmanned aerial systems. Additionally, I am eager to hear from Professor Humphreys regarding DHS's efforts since his last appearance before the subcommittee to respond to the security vulnerabilities associated with drones.    I am also looking forward to hearing from Mr. Roggero, who will be able to better inform this subcommittee about emerging technology that can be used to increase the safety of our airspace and our security posture as drones become increasingly integrated into our National airspace. Last, I am pleased that Chief Beary, the president of the International Association of Chiefs of Police, is appearing before this subcommittee.    Although you are here today to testify about the use of drones in law enforcement, I cannot forego the opportunity to talk with you about an issue that is very important to me and my constituents--that is the recent report from the Department of Justice on policing in Ferguson, Missouri, which found that many predominantly African-American neighborhoods are targeted in an effort to raise revenue for financial functions.    My question will be: Are drones possibly--can they possibly be mechanisms used for accountability, such as body cameras will be? I want to thank you for the fine job that you are doing, but this issue really must be addressed.    Now, back to the specifics of drones. Commercially-available drones are becoming an increasingly popular purchase, with the drone market expected to grow $84 billion over the next 5 years. As the commercial drone market grows, so, too, does the threat that drones will be used by actors with ill intent.    Drones can be purchased on-line with prices starting as low as $40, and they are fairly easy to assemble and learn how to operate. In many cases, it is easier to learn how to operate a drone than it is a model aircraft.    With drones being so easily accessible, we must consider the potential they have to be used as mechanisms to conduct an attack.    Although we have not yet witnessed such an attack, we have seen how individuals operating drones have gotten extraordinarily close to at least one head of state. During the campaign rallying in 2013, the drone, piloted by an opposition party supporter, landed at the feet of the chancellor of Germany, Angela Merkel, as mentioned by my Chairman.    There have also been recent stories of mysterious drones flying over sensitive Government assets, including the U.S. Embassy in Paris, and we are all familiar with the story regarding the drone landing on the White House lawn in January. It does not take wild imagination to envision what may happen if someone with malicious intent got their hands on drones.    This emerging threat requires a unified effort by the Department of Homeland Security in developing security plans for mitigation and response. The Department of Homeland Security must conduct risk assessment to accurately determine the threat posed by drones.    In the absence of risk assessments and a measured approach, the Department will spend millions of dollars without knowing what the real threat is or how to defend against it.    Unfortunately, the Department of Homeland Security declined this invitation to testify before this subcommittee to explain how they are working toward a Department-wide strategy and address the issues at hand. Even without the Department's testimony, I am confident that the panel of witnesses that are here today will help us better understand the threat posed by drones and the technologies available to address that threat.    Although drones are not the only avenue for conducting attacks, it is imperative that we leave the bad guys with fewer rather than a whole universe of options. We will narrow the threat picture by dealing with the security vulnerabilities posed by commercially-available drones while still recognizing the economic benefits of the industry.    With that, Mr. Chairman, I thank you and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman, and thank you for holding this important and timely hearing.    On a daily basis articles are published about the suspicious use of commercially-available drones. In recent weeks drones have been observed flying over sensitive locations in Paris. According to French authorities, drones have flown over nuclear installations, the home of the French president, and the United States Embassy.    Here in the United States, a drone recently crashed on the White House grounds. While the incident at the White House has been described by officials as nothing more than a drunken misadventure, it raises questions about the threat commercially-available drones may pose to individuals, infrastructure, and our aviation systems.    Undoubtedly, drones have great potential. In Japan, drones have been used by farmers for years as an efficient and effective tool for crop fertilization. Projects for commercial use in the United States display that drones will become a common sight on farms in Pennsylvania and my home State of Mississippi in the coming years.    In the wrong hands, however, these potentially valuable commercial tools could become dangerous instruments for attack. That is why it is critical that the Department of Homeland Security conduct risk assessments to determine what steps should be taken to mitigate the potential threat.    To date, we have learned of components of the Department, such as Secret Service and the Science and Technology Directorate, conducting testing that identifies methods to address the potential threats drones pose. It is less clear whether there is a Department-wide strategy to develop--to address the issue.    Unfortunately, despite being invited, as previously commented, the Department of Homeland Security is not here today to explain why and to Members what is being done to address the security vulnerabilities drones expose. Despite the Department's absence, I am confident that the Members will receive valuable testimony from this distinguished panel of witnesses assembled.    Professor McNeal is an expert on the issues of drones and will add a valuable voice to our conversation about the policy solutions should be explored to address the security concerns surrounding drones. Professor Humphreys is making his second appearance before the subcommittee to discuss the issue. I look forward to the other witnesses' testimony also.    Finally, I am pleased that Chief Beary is appearing in his capacity as president of the International Association of Chiefs of Police. We all have questions Chief Beary can address regarding how law enforcement utilizes drones and how they respond to drone operating in our cities.    However, before yielding back, Mr. Chairman, I am compelled to point out that much of what we, and now the public, know of the Secret Service's testing of drones is the result of leaks. Unfortunately, it is all too common an occurrence that information provided to Members and staff in our security space to be published by the media in the next days and hours after the briefing.    This committee has a responsibility to the American people to make the Department of Homeland Security work and, accordingly, our Nation more secure. Leaking Classified information is in direct conflict with that responsibility. It is also in conflict with the law and the oath we signed to obtain access to Classified information.    I hope and trust all Members and staff of this committee and those of other committees we invite to attend briefings will take the oath and the responsibility that comes with it to heart.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -79,6 +100,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Humphreys</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Humphreys. Chairman Perry, Ranking Member Watson Coleman, and Ranking Member Thompson, last August the U.T. football season opener was interrupted by a drone. There were nearly 100,000 football fans in the stadium that day and the police had to stand by watching helplessly as this drone shifted around the stadium.    The incident only ended when the operator decided to recall the drone and it landed at his feet.    The situation turned out to be harmless. This was just a case of a ticketless but devoted U.T. football fan who just wanted to watch the game. But the police couldn't have known that before-hand, so they had to treat the incident as a potential attack on the multitude of gathered spectators.    In the years to come, this intrusion at the U.T. football stadium will be replayed in various forms at sites critical to the security of the United States. The great majority of these incidents will be accidently, like the flyaway drone that crashed at the White House in January.    But in the early stages of a drone incursion, it is impossible to distinguish the accidental from the intentional, the malignant from the benign. The distressing truth is that even consumer-grade drones can be rigged to carry out potent attacks, and against these attacks our defenses will either be only weakly effective or so militarized as to pose themselves a threat to bystanders and the surrounding civil infrastructure.    In thinking about how to detect and defend against rogue UAVs, it is useful to distinguish three categories. First are the accidental intrusions; second are the intentional intrusions by unsophisticated operators; and third are the intentional intrusions by sophisticated operators--these are people who know how to modify the hardware and software of a drone to make it do what they want.    Detecting and safely repelling intrusions of the first two categories is not simple, but it is quite possible. Commercial UAV manufacturers can play a key role here by implementing GPS-enforced geo-fences within their autopilot systems. That simple fix would prevent accidental and unsophisticated drone intrusions into restricted airspace.    So what about the third type--the sophisticated malicious attacks? These will be much more difficult to counter. The fact is that for any reasonable defense I can imagine, I can also imagine a counter to that defense, a way to circumvent that defense.    I am not alone. Any one of my graduate students at the University of Texas, or many undergraduate students walking the halls of universities across the globe, or those part of the do-it-yourself community, hobbyists--these people have the kind of skills that would be required to carry out one of the sophisticated attacks I mentioned. The documentation is also extensive.    So what should we do? Well, let's start with what we shouldn't do.    It won't help to impose stricter regulations on small UAS than the sensible regulations the FAA has already proposed. Likewise, restricting open-source autopilot platforms would hardly improve security, but it would stifle innovation. Military-style radio link or GPS jamming or spoofing wouldn't stop a sophisticated attacker, but would endanger commercial airliners and disrupt communications.    In my view, the most sensible way forward is to focus on accidental and unsophisticated UAV intrusions. Let's encourage the UAV manufacturers to put geo-fences in their autopilot systems.    For especially sensitive sites like the White House, we could deploy a network of infrared cameras set up to detect and track an incoming drone by looking for the thermal signatures of its warm batteries and motors. This network of sensors could be used to guide an always-ready squadron of interceptor drones that could capture the intruder in a net can carry it off.    But we should refrain from any more drastic measures than these until the threat of UAVs proves to be more of a menace than the recent incidents, which, while alarming, were ultimately harmless.    Thank you.</t>
   </si>
   <si>
@@ -88,12 +112,18 @@
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Roggero.    The Chairman now recognizes Chief Beary for your testimony, sir.</t>
   </si>
   <si>
+    <t>Beary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chief Beary. Good morning, Chairman Perry and Members of the subcommittee. Thank you for inviting me to testify today on the potential threat posed by unmanned aerial systems.    As president of the International Association of Chiefs of Police, commonly referred to as the IACP, and on behalf of our 23,000 members in 98 different countries, I would like to thank you, Members of this committee, for the support you have demonstrated for law enforcement over the years. Our law enforcement community and our communities in general need your support. Thank you.    The IACP is the world's largest association of law enforcement leaders, and for over 120 years the IACP has been launching internationally-acclaimed programs, speaking out on behalf of law enforcement, and conducting ground-breaking research. We provide services not only in the United States but across the globe.    I began my law enforcement career in 1977 and, as the Chairman said, I have 30 years on the municipal side, and now I have almost 8 years on the university side of law enforcement. The University of Central Florida is the largest university in the State of Florida, and we are the second-largest in the United States.    During my career I have watched the threats to our communities evolve. We still deal with the problem of violent crime, drugs, prostitution, smuggling, trafficking, and gangs, but we are now tasked in dealing with cyber threats, violent extremism, terrorism, and highly organized criminals with access to specialized equipment to aid them in their mission and to harm others and devastate our communities.    Included in that specialized equipment are unmanned aerial systems. While UAS can be a great tool, they also pose a serious threat to the public and law enforcement when used by the wrong people.    When used responsibly, and with good policies in place, UAS have enhanced law enforcement's ability to protect communities they serve. UAS has helped law enforcement agencies save time, save money, and, most importantly, save lives.    They are ideal for dangerous or difficult situations, like executing high-risk warrants; responding to barricaded suspects; gaining situational awareness in difficult terrain; and enhancing officer safety by exposing unseen dangers; locating missing children; or responding to damage caused by emergencies such as natural disasters, downed power lines, or hazardous material incidents.    Despite the undeniable benefits these systems can have, they also pose a grave threat to public safety. Almost anyone can obtain an unmanned aerial system these days. They can buy it off the shelf from Amazon, have it delivered in 2 days, charge the battery, and immediately begin flying the device.    The fact that these devices are so readily available to the public is concerning. The average citizen that is purchasing these devices generally has no aviation experience and therefore does not think twice about operating in controlled airspace, over the public, or over a crowded beach or any other gathering--mass gathering. Nor do they think twice about launching a UAS to ascertain what the police or the fire department is working on up the street.    This is a real danger to the public. Public safety and others regarding these aircraft have to be addressed. The average citizen simply does not know what they are doing wrong and the potential damaging effects that these devices can have when operated improperly.    Recently we have witnessed several high-profile incidents with UAS. Of course, we talked about the crash landing at the White House, flying over sensitive locations, and near-miss with aircraft on a regular basis. At the University of Central Florida we have personally experienced these aircraft flying over mass gatherings, including football games, in violation of airspace restrictions that are in place to protect the public.    The newest version of these devices are now flown in virtual reality mode, meaning that the operator does not need to be in the line of sight while flying the aircraft.    Thankfully, at this point most of the incidents involving UAS have not lead to horrific events, but I don't think we are far away from one of those happening. The concerns are real. There is nothing to stop the criminal element from purchasing a UAS and using it to cause localized or catastrophic damage.    I mentioned earlier that I am from Orlando, which is home to many, many theme parks. I can assure you they have major concerns about the safety of their guests, and they have numerous incidents of these devices flying over their airspace. They have a real fear that someone wants to harm a large amount of people who are attending their parks.    Now, something as simple as a UAS were to fly into a park or a football stadium with something as simple as a smoke bomb could cause incredible panic, thus leading to major injuries for the people that are there.    Again, these devices can be used to fly over restricted areas and to plan an attack.    Because these devices are in their infancy, now is the time for the Federal Government and the Federal agencies to work with us and develop the guidelines so that law enforcement knows what to do. The Department of Homeland Security did provide my agency with a 2-page document on recommended UAS response procedures at our stadium. We got that late in the football season in November.    While those things are nice, there is no detail in what do we do for the follow-up, how do we respond to these, who do we call for further information? We are not criticizing the Federal Government; this is our call for help. Law enforcement needs to know how you want us to respond to these and where we are going to go in the future.    The lack of clear guidance and best practices has led to confusion among the law enforcement community when they are dealing with these. Almost every critical situation now, they are drones flying over top of law enforcement officers and interfering with our helicopter when we are trying to deal with these things.    Again, since these devices do not have a transponder or a registration, it is difficult to track down and it is impossible, in many cases, to figure out where they came from.    Without law enforcement knowing the proper procedures it leaves us vulnerable and makes our primary job of keeping the public safe more challenging.    Ladies and gentlemen, I thank you for allowing me the opportunity to be here. I look forward to the questions.    Again, I bring quite a bit of law enforcement experience to the table, and if you want to talk about the Justice report, wherever you want to go I am good to go. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Chief Beary.    The Chairman now recognizes Dr. McNeal for your testimony, sir.</t>
   </si>
   <si>
+    <t>McNeal</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNeal. Chairman Perry, Ranking Member Watson Coleman, Ranking Member Thompson, and Members of the committee, thank you for hosting this hearing and inviting me to testify.    The emergence of unmanned aerial vehicles in domestic skies raises understandable concerns that may require employment of mitigation technologies by law enforcement or security personnel. However, before any funds are expended on such technologies, agencies should engage in comprehensive risk assessment to identify the probability of that harm, the magnitude of a potential harm, benefits of security measures, and the cost of those measures. We have to bear in mind that one of the significant costs is that the vast majority of drones will be used for economically and socially beneficial purposes, and we have to remain cognizant of that at all points in time.    This testimony outlines four key issues that Congress should remain cognizant of when drafting legislation or overseeing the Department of Homeland Security.    First, Congress should ensure that agencies are distinguishing between possible threats, which we can all sit around and imagine, and probable threats. Congress should also ensure that agencies are avoiding fear-based appeals that might drive the policymaking process.    Drones are an exciting topic. They capture the attention of the media. Oftentimes that drives agencies to feel like they need to do something, to look like they are responding.    The recent attention for drones, though, oftentimes appears to be driven by this type of media attention. I say this because while remote control aircraft are seemingly new, they have, in fact, been around for decades.    Furthermore, the small quadcopters that have been gathering so much attention lately due to their ease of use would also be the least useful to a dedicated attacker. Rather, larger, faster, and heavier systems exist, and these systems have existed for many years. Many of those systems can be home-built, and in the hands of a dedicated attacker they will be very difficult to stop.    Given the complexity of the threat picture, we must ensure that agencies do not fall victim to the sensationalism that drives worst-case scenario-based planning. Such an approach to risk management can justify enormous expenditures no matter how unlikely the prospects are that the event will take place.    We should avoid focusing only on the extreme but improbable, and rather, we should do the best that we can to focus on the probable and assess the magnitude of the potential harm that might flow from those.    Second, Congress should ensure that agencies are assessing risk by not only looking at that probability of a successful attack, but also the magnitude of losses. Congress should ensure that every agency action related to an alleged homeland security risk from drones is preceded by a risk assessment. That is the first step in any managerial decision about potential threats. Across homeland security, any time we are looking at threats it should be preceded by looking at the risk before we immediately begin expending funds.    A risk assessment is that first step and ensures that agencies make hard choices with limited resources. Every possible threat cannot be guarded against; therefore, agencies have to focus on the riskiest threats.    Third, Congress should ensure that before any funds are spent agencies are also engaged in a formal cost-benefit analysis. The employment of mitigation technology against risk cannot take place in a vacuum. Rather, it requires agencies to consider the degree to which a security measure is likely to deter, disrupt, or protect against a terrorist attack.    The reality is that implementing security measures across all--across the Federal Government will require aggregating the costs across thousands of facilities. How to allocate those scarce resources will require prioritization driven by risk assessments, and this brings me to my final point.    Congress should ensure that specific individuals at the Department of Homeland Security are responsible for conducting these analyses and reporting their methodology. Congress may also want to provide funds to the Centers of Excellence for an independent check on how agencies are conducting these assessments.    Given the complexity of the risk assessment picture associated with drones and their potential to pose a homeland security threat, I am certain that DHS and agencies are working on this. I am sure many people are working on this. In fact, that might be part of the problem is that in every--in each stovepipe across agencies, various individuals might be working on the threat but there is not a single point of coordination.    So Congress should direct that a specific individual or an office within DHS take the interagency lead on this. There is some precedent for this. Back in 2004 homeland security stood up an office known as the Counter-MANPADS System Program Office. This was the office that assessed whether or not there was a threat to commercial aviation from man-portable surface-to-air missiles.    It was a temporary office that assessed the threat; after assessing the threat, providing some recommendations, it went away.    We could stand up a similar office about emerging threats. Or in the alternative, what we could do is we could designate that the under secretary for National Protection and Programs Directorate lead a threat assessment process for drones specifically, or for emerging threats in general.    The emergence of unmanned aerial vehicles in domestic skies raises understandable concerns, but before any funds are expended on such technologies--mitigation technologies, the Department should engage in a comprehensive risk assessment to identify the probability of harm, magnitude of harm, benefits of security measures, and the direct and indirect costs of those security measures.    Thank you.</t>
   </si>
   <si>
@@ -205,6 +235,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    Appreciate the testimony here, and I think, Dr. Humphreys and Dr. McNeal, you kind of hit on some significant areas with risk analysis as we go forward. Especially, I think the two categories that we can really look at this is the unintentional and the intentional.    Unintentional, we can mitigate some of the incidents with that via regulation, legislation, technology, et cetera. But the intentional--it is more difficult because the bad guys are going to be bad guys. They are going to work around that.    I put a lot of thought into this as an aviator, and working in search and rescue and different areas such as that. This is a question to anyone on the panel that has the information: Have there been any efforts or have we classified UAS platforms based on their technology, sophistication, payload capabilities complexity of operation?    Do we have a classification, like we do with civilian aircraft? You know, we have the different classifications--single engine, twin, land, sea-capable, et cetera.</t>
   </si>
   <si>
@@ -241,6 +277,12 @@
     <t>412432</t>
   </si>
   <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman.    Thank you, to the Ranking Member of the full committee, and the Ranking Member of the subcommittee, and the witnesses.    Let me just start with some very basic stuff.    Major General Roggero, let me start with you.    I represent the district with probably the largest petrochemical footprint in the United States on the Mississippi River in New Orleans, around New Orleans. Is there any technology out there right now that would prevent these drones from being used to do reconnaissance missions just to look at the security on these chemical facilities or our port or any of those very sensitive properties?    General Rogerro. From a technology aspect, depends on what equipment they are using. But for a good amount of it I would say yes, there is technology that could do things.    I am not looking at policy right now or questions on technology, but yes, technology could get into the signal--either the video or the command and control of the system--and affect the navigation of the system so it may not be looking exactly what they want it to look at. So that is there.    But there are complications with that in terms of policy, with FCC rules and other things that--another issue that is out there is that the FAA has declared that all of these are aircraft, and as such, their second and third order of effects--perhaps unintended effects--but that aircraft is given protections as if it were a manned aircraft, as well. So there are certain actions, according to policy, that you can't take against them.</t>
   </si>
   <si>
@@ -263,6 +305,12 @@
   </si>
   <si>
     <t>412617</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Norma</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you so much, and thank you for the opportunity to discuss this very important topic.    Just to follow up on your conversation, as a former 9-1-1 dispatcher I can tell you from personal experience that trying to get clearance to--as we are pursuing a vehicle, or our officers are pursuing a vehicle, trying to get clearance from an airport to follow a vehicle into that restricted zone, our helicopters are unable to continue that pursuit, but yet the media or, you know, folk from the ground can continue that pursuit through a drone.    That poses, you know--it is a very scary environment for those of us who live near an executive airport, for example, where our homes are very close by, and the--and these executive aircraft are landing--their landing route is right over our home. I thought, you know, birds were the scariest things that, you know, could face an aircraft as they are beginning to land, but now we have more and more of these drones that are getting in that way.    My question is really going to be to Professor Humphreys, and that is, in your prior testimony before the committee in 2012 you spoke of the use of civilian GPS and their ability to be spoofed or counterfeit. Can you tell me how technology has evolved? You know, what are the differences between then and now with older and newer models?</t>
@@ -725,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,2477 +803,2923 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>97</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G71" t="s">
+        <v>73</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94580.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94580.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Perry</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412644</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Watson Coleman</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Thompson</t>
   </si>
   <si>
@@ -233,6 +245,9 @@
   </si>
   <si>
     <t>412624</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Loudermilk</t>
@@ -773,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +796,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,2920 +821,3160 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>36</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>36</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>136</v>
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
